--- a/Documentation/V3_Liste_des_composants_Projet-Synthétiseur.xlsx
+++ b/Documentation/V3_Liste_des_composants_Projet-Synthétiseur.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3588E122-3712-4AA1-89CB-8F4B3F3AED0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -67,9 +68,6 @@
     <t>https://fr.farnell.com/marquardt/1832-3312/interrupteur-a-manette-basculante/dp/1831111</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://fr.rs-online.com/web/p/haut-parleurs-miniatures/1176044?cm_mmc=FR-PLA-DS3A-_-google-_-CSS_FR_FR_Passifs_Whoop-_-(FR:Whoop!)+Haut+parleurs+miniatures-_-1176044&amp;matchtype=&amp;aud-821594433763:pla-333378419216&amp;gclid=EAIaIQobChMIheru7PGQ9gIV1-N3Ch3D0Q_6EAQYASABEgKmavD_BwE&amp;gclsrc=aw.ds</t>
-  </si>
-  <si>
     <t>Haut parleur  ( Niveau son 85dB)</t>
   </si>
   <si>
@@ -83,12 +81,15 @@
   </si>
   <si>
     <t>https://fr.rs-online.com/web/p/porte-piles/1854747</t>
+  </si>
+  <si>
+    <t>https://fr.rs-online.com/web/p/haut-parleurs-miniatures/1176044?cm_mmc=FR-PLA-DS3A-_-google-_-CSS_FR_FR_Passifs_Whoop-_-(FR:Whoop!)+Haut+parleurs+miniatures-_-1176044&amp;matchtype=&amp;aud-821594433763:pla-333378419216&amp;gclid=EAIaIQobChMIheru7PGQ9gIV1-N3Ch3D0Q_6EAQYASABEgKmavD_BwE&amp;gclsrc=aw.ds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +147,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -163,7 +164,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -238,6 +239,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -273,6 +291,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,25 +483,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -489,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -497,10 +532,10 @@
         <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -508,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -516,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -524,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -535,18 +570,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -554,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -565,10 +600,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -577,7 +612,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -586,18 +621,19 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G11" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
-    <hyperlink ref="G8" r:id="rId4"/>
-    <hyperlink ref="G9"/>
+    <hyperlink ref="G6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G9" display="https://fr.rs-online.com/web/p/potentiometres/8274990?cm_mmc=FR-PLA-DS3A-_-google-_-CSS_FR_FR_Passifs_Whoop-_-(FR:Whoop!)+Potentiom%C3%A8tres+(2)-_-8274990&amp;matchtype=&amp;aud-821594433763:pla-346415135252&amp;gclid=EAIaIQobChMI4Kba9IiR9gIVl53VCh3L9ADYEAQYASABEgKp" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G7" r:id="rId5" display="https://fr.rs-online.com/web/p/haut-parleurs-miniatures/1176044?cm_mmc=FR-PLA-DS3A-_-google-_-CSS_FR_FR_Passifs_Whoop-_-(FR:Whoop!)+Haut+parleurs+miniatures-_-1176044&amp;matchtype=&amp;aud-821594433763:pla-333378419216&amp;gclid=EAIaIQobChMIheru7PGQ9gIV1-N3Ch3D0Q_6EAQYASABEgKmavD_BwE&amp;gclsrc=aw.ds" xr:uid="{91CA10C0-A52E-4566-BD7C-6DD5758DDA1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>